--- a/sources/data/_raw/marijuana_print.xlsx
+++ b/sources/data/_raw/marijuana_print.xlsx
@@ -8,16 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hargaja/Desktop/workspace/enterprise/20190228-weed/sources/data/_raw/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8674C66F-9CCC-CE4F-8A38-116EC2CD8758}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1A8FB98-DE8C-3B4E-BED4-92919770538E}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9460" yWindow="2060" windowWidth="27640" windowHeight="16940" xr2:uid="{7118C19A-00F0-994B-B238-6C6D687C1D8C}"/>
+    <workbookView xWindow="5960" yWindow="2060" windowWidth="27640" windowHeight="16940" activeTab="1" xr2:uid="{7118C19A-00F0-994B-B238-6C6D687C1D8C}"/>
   </bookViews>
   <sheets>
-    <sheet name="states" sheetId="5" r:id="rId1"/>
-    <sheet name="tax_revenue" sheetId="1" r:id="rId2"/>
+    <sheet name="tax_revenue" sheetId="1" r:id="rId1"/>
+    <sheet name="polls" sheetId="6" r:id="rId2"/>
     <sheet name="arrests" sheetId="2" r:id="rId3"/>
     <sheet name="convictions" sheetId="3" r:id="rId4"/>
     <sheet name="race" sheetId="4" r:id="rId5"/>
+    <sheet name="states" sheetId="5" r:id="rId6"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="164">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="334" uniqueCount="168">
   <si>
     <t>STATE</t>
   </si>
@@ -526,6 +527,18 @@
   </si>
   <si>
     <t>Source: NORML, Star Tribune reporting</t>
+  </si>
+  <si>
+    <t>national</t>
+  </si>
+  <si>
+    <t>midwest</t>
+  </si>
+  <si>
+    <t>Support for marijuana legalization</t>
+  </si>
+  <si>
+    <t>Source: Gallup</t>
   </si>
 </sst>
 </file>
@@ -591,7 +604,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -605,6 +618,9 @@
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -918,925 +934,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{71A561B5-1663-5444-B825-2E9E46D61281}">
-  <dimension ref="A1:H54"/>
-  <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A45" workbookViewId="0">
-      <selection activeCell="A55" sqref="A55"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A2" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A3" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="H3" s="2"/>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A4" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2"/>
-      <c r="H4" s="2"/>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A5" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2"/>
-      <c r="H5" s="2"/>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A6" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="H6" s="2" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A7" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
-      <c r="G7" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="H7" s="2"/>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A8" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="F8" s="2"/>
-      <c r="G8" s="2"/>
-      <c r="H8" s="2" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A9" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="F9" s="2"/>
-      <c r="G9" s="2"/>
-      <c r="H9" s="2" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A10" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="G10" s="2"/>
-      <c r="H10" s="2"/>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A11" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="F11" s="2"/>
-      <c r="G11" s="2"/>
-      <c r="H11" s="2"/>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A12" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="E12" s="2"/>
-      <c r="F12" s="2"/>
-      <c r="G12" s="2"/>
-      <c r="H12" s="2" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A13" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="C13" s="2"/>
-      <c r="D13" s="2"/>
-      <c r="E13" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="F13" s="2"/>
-      <c r="G13" s="2"/>
-      <c r="H13" s="2"/>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A14" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
-      <c r="F14" s="2"/>
-      <c r="G14" s="2"/>
-      <c r="H14" s="2"/>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A15" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="C15" s="2"/>
-      <c r="D15" s="2"/>
-      <c r="E15" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="F15" s="2"/>
-      <c r="G15" s="2"/>
-      <c r="H15" s="2"/>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A16" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="C16" s="2"/>
-      <c r="D16" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="E16" s="2"/>
-      <c r="F16" s="2"/>
-      <c r="G16" s="2"/>
-      <c r="H16" s="2" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A17" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="C17" s="2"/>
-      <c r="D17" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="E17" s="2"/>
-      <c r="F17" s="2"/>
-      <c r="G17" s="2"/>
-      <c r="H17" s="2" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A18" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="D18" s="2"/>
-      <c r="E18" s="2"/>
-      <c r="F18" s="2"/>
-      <c r="G18" s="2"/>
-      <c r="H18" s="2"/>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A19" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="C19" s="2"/>
-      <c r="D19" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="E19" s="2"/>
-      <c r="F19" s="2"/>
-      <c r="G19" s="2"/>
-      <c r="H19" s="2" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A20" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="C20" s="2"/>
-      <c r="D20" s="2"/>
-      <c r="E20" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="F20" s="2"/>
-      <c r="G20" s="2"/>
-      <c r="H20" s="2"/>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A21" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="C21" s="2"/>
-      <c r="D21" s="2"/>
-      <c r="E21" s="2"/>
-      <c r="F21" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="G21" s="2"/>
-      <c r="H21" s="2" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A22" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="C22" s="2"/>
-      <c r="D22" s="2"/>
-      <c r="E22" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="F22" s="2"/>
-      <c r="G22" s="2"/>
-      <c r="H22" s="2" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A23" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="B23" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="C23" s="2"/>
-      <c r="D23" s="2"/>
-      <c r="E23" s="2"/>
-      <c r="F23" s="2"/>
-      <c r="G23" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="H23" s="2" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A24" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="B24" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="C24" s="2"/>
-      <c r="D24" s="2"/>
-      <c r="E24" s="2"/>
-      <c r="F24" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="G24" s="2"/>
-      <c r="H24" s="2" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A25" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="B25" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="C25" s="2"/>
-      <c r="D25" s="2"/>
-      <c r="E25" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="F25" s="2"/>
-      <c r="G25" s="2"/>
-      <c r="H25" s="2" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A26" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="B26" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="C26" s="2"/>
-      <c r="D26" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="E26" s="2"/>
-      <c r="F26" s="2"/>
-      <c r="G26" s="2"/>
-      <c r="H26" s="2" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A27" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="B27" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="C27" s="2"/>
-      <c r="D27" s="2"/>
-      <c r="E27" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="F27" s="2"/>
-      <c r="G27" s="2"/>
-      <c r="H27" s="2"/>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A28" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="B28" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="C28" s="2"/>
-      <c r="D28" s="2"/>
-      <c r="E28" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="F28" s="2"/>
-      <c r="G28" s="2"/>
-      <c r="H28" s="2"/>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A29" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="B29" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="C29" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="D29" s="2"/>
-      <c r="E29" s="2"/>
-      <c r="F29" s="2"/>
-      <c r="G29" s="2"/>
-      <c r="H29" s="2" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A30" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B30" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C30" s="2"/>
-      <c r="D30" s="2"/>
-      <c r="E30" s="2"/>
-      <c r="F30" s="2"/>
-      <c r="G30" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="H30" s="2" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A31" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="B31" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="C31" s="2"/>
-      <c r="D31" s="2"/>
-      <c r="E31" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="F31" s="2"/>
-      <c r="G31" s="2"/>
-      <c r="H31" s="2"/>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A32" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="B32" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="C32" s="2"/>
-      <c r="D32" s="2"/>
-      <c r="E32" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="F32" s="2"/>
-      <c r="G32" s="2"/>
-      <c r="H32" s="2"/>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A33" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="B33" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="C33" s="2"/>
-      <c r="D33" s="2"/>
-      <c r="E33" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="F33" s="2"/>
-      <c r="G33" s="2"/>
-      <c r="H33" s="2"/>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A34" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="B34" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="C34" s="2"/>
-      <c r="D34" s="2"/>
-      <c r="E34" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="F34" s="2"/>
-      <c r="G34" s="2"/>
-      <c r="H34" s="2" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A35" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="B35" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="C35" s="2"/>
-      <c r="D35" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="E35" s="2"/>
-      <c r="F35" s="2"/>
-      <c r="G35" s="2"/>
-      <c r="H35" s="2" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A36" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="B36" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="C36" s="2"/>
-      <c r="D36" s="2"/>
-      <c r="E36" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="F36" s="2"/>
-      <c r="G36" s="2"/>
-      <c r="H36" s="2"/>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A37" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="B37" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="C37" s="2"/>
-      <c r="D37" s="2"/>
-      <c r="E37" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="F37" s="2"/>
-      <c r="G37" s="2"/>
-      <c r="H37" s="2" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A38" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="B38" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="C38" s="2"/>
-      <c r="D38" s="2"/>
-      <c r="E38" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="F38" s="2"/>
-      <c r="G38" s="2"/>
-      <c r="H38" s="2"/>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A39" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B39" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C39" s="2"/>
-      <c r="D39" s="2"/>
-      <c r="E39" s="2"/>
-      <c r="F39" s="2"/>
-      <c r="G39" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="H39" s="2"/>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A40" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="B40" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="C40" s="2"/>
-      <c r="D40" s="2"/>
-      <c r="E40" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="F40" s="2"/>
-      <c r="G40" s="2"/>
-      <c r="H40" s="2"/>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A41" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="B41" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="C41" s="2"/>
-      <c r="D41" s="2"/>
-      <c r="E41" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="F41" s="2"/>
-      <c r="G41" s="2"/>
-      <c r="H41" s="2" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A42" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="B42" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="C42" s="2"/>
-      <c r="D42" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="E42" s="2"/>
-      <c r="F42" s="2"/>
-      <c r="G42" s="2"/>
-      <c r="H42" s="2" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A43" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="B43" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="C43" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="D43" s="2"/>
-      <c r="E43" s="2"/>
-      <c r="F43" s="2"/>
-      <c r="G43" s="2"/>
-      <c r="H43" s="2"/>
-    </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A44" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="B44" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="C44" s="2"/>
-      <c r="D44" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="E44" s="2"/>
-      <c r="F44" s="2"/>
-      <c r="G44" s="2"/>
-      <c r="H44" s="2" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A45" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="B45" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="C45" s="2"/>
-      <c r="D45" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="E45" s="2"/>
-      <c r="F45" s="2"/>
-      <c r="G45" s="2"/>
-      <c r="H45" s="2" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A46" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="B46" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="C46" s="2"/>
-      <c r="D46" s="2"/>
-      <c r="E46" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="F46" s="2"/>
-      <c r="G46" s="2"/>
-      <c r="H46" s="2"/>
-    </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A47" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="B47" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="C47" s="2"/>
-      <c r="D47" s="2"/>
-      <c r="E47" s="2"/>
-      <c r="F47" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="G47" s="2"/>
-      <c r="H47" s="2" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A48" s="2" t="s">
-        <v>154</v>
-      </c>
-      <c r="B48" s="2" t="s">
-        <v>155</v>
-      </c>
-      <c r="C48" s="2"/>
-      <c r="D48" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="E48" s="2"/>
-      <c r="F48" s="2"/>
-      <c r="G48" s="2"/>
-      <c r="H48" s="2" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A49" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B49" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C49" s="2"/>
-      <c r="D49" s="2"/>
-      <c r="E49" s="2"/>
-      <c r="F49" s="2"/>
-      <c r="G49" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="H49" s="2"/>
-    </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A50" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="B50" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="C50" s="2"/>
-      <c r="D50" s="2"/>
-      <c r="E50" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="F50" s="2"/>
-      <c r="G50" s="2"/>
-      <c r="H50" s="2"/>
-    </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A51" s="2" t="s">
-        <v>159</v>
-      </c>
-      <c r="B51" s="2" t="s">
-        <v>160</v>
-      </c>
-      <c r="C51" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="D51" s="2"/>
-      <c r="E51" s="2"/>
-      <c r="F51" s="2"/>
-      <c r="G51" s="2"/>
-      <c r="H51" s="2"/>
-    </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A52" s="2" t="s">
-        <v>161</v>
-      </c>
-      <c r="B52" s="2" t="s">
-        <v>162</v>
-      </c>
-      <c r="C52" s="2"/>
-      <c r="D52" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="E52" s="2"/>
-      <c r="F52" s="2"/>
-      <c r="G52" s="2"/>
-      <c r="H52" s="2" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A54" s="2" t="s">
-        <v>163</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D2F390FA-3DBA-554F-9E69-82F4E9270C68}">
   <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1968,6 +1070,592 @@
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
         <v>24</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{993D9465-4C66-F346-8234-B6A5A8D8D43F}">
+  <dimension ref="A1:C54"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A44" workbookViewId="0">
+      <selection activeCell="A55" sqref="A55"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" s="4">
+        <v>1970</v>
+      </c>
+      <c r="B3" s="1">
+        <v>0.12</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" s="4">
+        <v>1971</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5" s="4">
+        <v>1972</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6" s="4">
+        <v>1973</v>
+      </c>
+      <c r="B6" s="1">
+        <v>0.16</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7" s="4">
+        <v>1974</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A8" s="4">
+        <v>1975</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A9" s="4">
+        <v>1976</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A10" s="4">
+        <v>1977</v>
+      </c>
+      <c r="B10" s="1">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A11" s="4">
+        <v>1978</v>
+      </c>
+      <c r="B11" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A12" s="4">
+        <v>1979</v>
+      </c>
+      <c r="B12" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" s="8" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A13" s="4">
+        <v>1980</v>
+      </c>
+      <c r="B13" s="1">
+        <v>0.25</v>
+      </c>
+      <c r="C13" s="8" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A14" s="4">
+        <v>1981</v>
+      </c>
+      <c r="B14" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14" s="8" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A15" s="4">
+        <v>1982</v>
+      </c>
+      <c r="B15" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" s="8" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A16" s="4">
+        <v>1983</v>
+      </c>
+      <c r="B16" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" s="8" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A17" s="4">
+        <v>1984</v>
+      </c>
+      <c r="B17" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" s="8" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A18" s="4">
+        <v>1985</v>
+      </c>
+      <c r="B18" s="1">
+        <v>0.23</v>
+      </c>
+      <c r="C18" s="8" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A19" s="4">
+        <v>1986</v>
+      </c>
+      <c r="B19" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" s="8" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A20" s="4">
+        <v>1987</v>
+      </c>
+      <c r="B20" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" s="8" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A21" s="4">
+        <v>1988</v>
+      </c>
+      <c r="B21" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" s="8" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A22" s="4">
+        <v>1989</v>
+      </c>
+      <c r="B22" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" s="8" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A23" s="4">
+        <v>1990</v>
+      </c>
+      <c r="B23" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" s="8" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A24" s="4">
+        <v>1991</v>
+      </c>
+      <c r="B24" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" s="8" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A25" s="4">
+        <v>1992</v>
+      </c>
+      <c r="B25" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" s="8" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A26" s="4">
+        <v>1993</v>
+      </c>
+      <c r="B26" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" s="8" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A27" s="4">
+        <v>1994</v>
+      </c>
+      <c r="B27" s="1">
+        <v>0.25</v>
+      </c>
+      <c r="C27" s="8" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A28" s="4">
+        <v>1995</v>
+      </c>
+      <c r="B28" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C28" s="8" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A29" s="4">
+        <v>1996</v>
+      </c>
+      <c r="B29" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C29" s="8" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A30" s="4">
+        <v>1997</v>
+      </c>
+      <c r="B30" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C30" s="8" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A31" s="4">
+        <v>1998</v>
+      </c>
+      <c r="B31" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C31" s="8" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A32" s="4">
+        <v>1999</v>
+      </c>
+      <c r="B32" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C32" s="8" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A33" s="4">
+        <v>2000</v>
+      </c>
+      <c r="B33" s="11">
+        <v>0.31</v>
+      </c>
+      <c r="C33" s="8" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A34" s="4">
+        <v>2001</v>
+      </c>
+      <c r="B34" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C34" s="8" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A35" s="4">
+        <v>2002</v>
+      </c>
+      <c r="B35" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C35" s="8" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A36" s="4">
+        <v>2003</v>
+      </c>
+      <c r="B36" s="11">
+        <v>0.34</v>
+      </c>
+      <c r="C36" s="8" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A37" s="4">
+        <v>2004</v>
+      </c>
+      <c r="B37" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C37" s="8" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A38" s="4">
+        <v>2005</v>
+      </c>
+      <c r="B38" s="11">
+        <v>0.36</v>
+      </c>
+      <c r="C38" s="8" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A39" s="4">
+        <v>2006</v>
+      </c>
+      <c r="B39" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C39" s="8" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A40" s="4">
+        <v>2007</v>
+      </c>
+      <c r="B40" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C40" s="8" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A41" s="4">
+        <v>2008</v>
+      </c>
+      <c r="B41" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C41" s="8" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A42" s="4">
+        <v>2009</v>
+      </c>
+      <c r="B42" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C42" s="11">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A43" s="4">
+        <v>2010</v>
+      </c>
+      <c r="B43" s="11">
+        <v>0.46</v>
+      </c>
+      <c r="C43" s="11">
+        <v>0.41</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A44" s="4">
+        <v>2011</v>
+      </c>
+      <c r="B44" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C44" s="11">
+        <v>0.54</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A45" s="4">
+        <v>2012</v>
+      </c>
+      <c r="B45" s="11">
+        <v>0.48</v>
+      </c>
+      <c r="C45" s="11">
+        <v>0.44</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A46" s="4">
+        <v>2013</v>
+      </c>
+      <c r="B46" s="11">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="C46" s="11">
+        <v>0.57999999999999996</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A47" s="4">
+        <v>2014</v>
+      </c>
+      <c r="B47" s="11">
+        <v>0.51</v>
+      </c>
+      <c r="C47" s="11">
+        <v>0.45</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A48" s="4">
+        <v>2015</v>
+      </c>
+      <c r="B48" s="11">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="C48" s="8" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A49" s="4">
+        <v>2016</v>
+      </c>
+      <c r="B49" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C49" s="8" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A50" s="4">
+        <v>2017</v>
+      </c>
+      <c r="B50" s="11">
+        <v>0.64</v>
+      </c>
+      <c r="C50" s="8" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A51" s="4">
+        <v>2018</v>
+      </c>
+      <c r="B51" s="11">
+        <v>0.66</v>
+      </c>
+      <c r="C51" s="11">
+        <v>0.65</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A52" s="4">
+        <v>2019</v>
+      </c>
+      <c r="B52" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C52" s="8" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A54" t="s">
+        <v>167</v>
       </c>
     </row>
   </sheetData>
@@ -2714,4 +2402,918 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{71A561B5-1663-5444-B825-2E9E46D61281}">
+  <dimension ref="A1:H54"/>
+  <sheetViews>
+    <sheetView topLeftCell="A26" workbookViewId="0">
+      <selection activeCell="A55" sqref="A55"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A2" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A3" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="H3" s="2"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A4" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A5" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
+      <c r="H5" s="2"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A6" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A7" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="H7" s="2"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A8" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
+      <c r="H8" s="2" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A9" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2"/>
+      <c r="H9" s="2" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A10" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="G10" s="2"/>
+      <c r="H10" s="2"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A11" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="F11" s="2"/>
+      <c r="G11" s="2"/>
+      <c r="H11" s="2"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A12" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
+      <c r="G12" s="2"/>
+      <c r="H12" s="2" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A13" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="F13" s="2"/>
+      <c r="G13" s="2"/>
+      <c r="H13" s="2"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A14" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2"/>
+      <c r="G14" s="2"/>
+      <c r="H14" s="2"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A15" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="C15" s="2"/>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="F15" s="2"/>
+      <c r="G15" s="2"/>
+      <c r="H15" s="2"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A16" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="C16" s="2"/>
+      <c r="D16" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="E16" s="2"/>
+      <c r="F16" s="2"/>
+      <c r="G16" s="2"/>
+      <c r="H16" s="2" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A17" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="C17" s="2"/>
+      <c r="D17" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="E17" s="2"/>
+      <c r="F17" s="2"/>
+      <c r="G17" s="2"/>
+      <c r="H17" s="2" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A18" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="D18" s="2"/>
+      <c r="E18" s="2"/>
+      <c r="F18" s="2"/>
+      <c r="G18" s="2"/>
+      <c r="H18" s="2"/>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A19" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="C19" s="2"/>
+      <c r="D19" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="E19" s="2"/>
+      <c r="F19" s="2"/>
+      <c r="G19" s="2"/>
+      <c r="H19" s="2" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A20" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="C20" s="2"/>
+      <c r="D20" s="2"/>
+      <c r="E20" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="F20" s="2"/>
+      <c r="G20" s="2"/>
+      <c r="H20" s="2"/>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A21" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="C21" s="2"/>
+      <c r="D21" s="2"/>
+      <c r="E21" s="2"/>
+      <c r="F21" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="G21" s="2"/>
+      <c r="H21" s="2" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A22" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="C22" s="2"/>
+      <c r="D22" s="2"/>
+      <c r="E22" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="F22" s="2"/>
+      <c r="G22" s="2"/>
+      <c r="H22" s="2" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A23" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="C23" s="2"/>
+      <c r="D23" s="2"/>
+      <c r="E23" s="2"/>
+      <c r="F23" s="2"/>
+      <c r="G23" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="H23" s="2" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A24" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="C24" s="2"/>
+      <c r="D24" s="2"/>
+      <c r="E24" s="2"/>
+      <c r="F24" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="G24" s="2"/>
+      <c r="H24" s="2" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A25" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="C25" s="2"/>
+      <c r="D25" s="2"/>
+      <c r="E25" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="F25" s="2"/>
+      <c r="G25" s="2"/>
+      <c r="H25" s="2" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A26" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="C26" s="2"/>
+      <c r="D26" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="E26" s="2"/>
+      <c r="F26" s="2"/>
+      <c r="G26" s="2"/>
+      <c r="H26" s="2" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A27" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="C27" s="2"/>
+      <c r="D27" s="2"/>
+      <c r="E27" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="F27" s="2"/>
+      <c r="G27" s="2"/>
+      <c r="H27" s="2"/>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A28" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="C28" s="2"/>
+      <c r="D28" s="2"/>
+      <c r="E28" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="F28" s="2"/>
+      <c r="G28" s="2"/>
+      <c r="H28" s="2"/>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A29" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="D29" s="2"/>
+      <c r="E29" s="2"/>
+      <c r="F29" s="2"/>
+      <c r="G29" s="2"/>
+      <c r="H29" s="2" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A30" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C30" s="2"/>
+      <c r="D30" s="2"/>
+      <c r="E30" s="2"/>
+      <c r="F30" s="2"/>
+      <c r="G30" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="H30" s="2" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A31" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="C31" s="2"/>
+      <c r="D31" s="2"/>
+      <c r="E31" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="F31" s="2"/>
+      <c r="G31" s="2"/>
+      <c r="H31" s="2"/>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A32" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="C32" s="2"/>
+      <c r="D32" s="2"/>
+      <c r="E32" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="F32" s="2"/>
+      <c r="G32" s="2"/>
+      <c r="H32" s="2"/>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A33" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="C33" s="2"/>
+      <c r="D33" s="2"/>
+      <c r="E33" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="F33" s="2"/>
+      <c r="G33" s="2"/>
+      <c r="H33" s="2"/>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A34" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="C34" s="2"/>
+      <c r="D34" s="2"/>
+      <c r="E34" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="F34" s="2"/>
+      <c r="G34" s="2"/>
+      <c r="H34" s="2" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A35" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="C35" s="2"/>
+      <c r="D35" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="E35" s="2"/>
+      <c r="F35" s="2"/>
+      <c r="G35" s="2"/>
+      <c r="H35" s="2" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A36" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="C36" s="2"/>
+      <c r="D36" s="2"/>
+      <c r="E36" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="F36" s="2"/>
+      <c r="G36" s="2"/>
+      <c r="H36" s="2"/>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A37" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="C37" s="2"/>
+      <c r="D37" s="2"/>
+      <c r="E37" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="F37" s="2"/>
+      <c r="G37" s="2"/>
+      <c r="H37" s="2" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A38" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="C38" s="2"/>
+      <c r="D38" s="2"/>
+      <c r="E38" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="F38" s="2"/>
+      <c r="G38" s="2"/>
+      <c r="H38" s="2"/>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A39" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C39" s="2"/>
+      <c r="D39" s="2"/>
+      <c r="E39" s="2"/>
+      <c r="F39" s="2"/>
+      <c r="G39" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="H39" s="2"/>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A40" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="C40" s="2"/>
+      <c r="D40" s="2"/>
+      <c r="E40" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="F40" s="2"/>
+      <c r="G40" s="2"/>
+      <c r="H40" s="2"/>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A41" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="C41" s="2"/>
+      <c r="D41" s="2"/>
+      <c r="E41" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="F41" s="2"/>
+      <c r="G41" s="2"/>
+      <c r="H41" s="2" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A42" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="C42" s="2"/>
+      <c r="D42" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="E42" s="2"/>
+      <c r="F42" s="2"/>
+      <c r="G42" s="2"/>
+      <c r="H42" s="2" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A43" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="D43" s="2"/>
+      <c r="E43" s="2"/>
+      <c r="F43" s="2"/>
+      <c r="G43" s="2"/>
+      <c r="H43" s="2"/>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A44" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="C44" s="2"/>
+      <c r="D44" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="E44" s="2"/>
+      <c r="F44" s="2"/>
+      <c r="G44" s="2"/>
+      <c r="H44" s="2" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A45" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="C45" s="2"/>
+      <c r="D45" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="E45" s="2"/>
+      <c r="F45" s="2"/>
+      <c r="G45" s="2"/>
+      <c r="H45" s="2" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A46" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="C46" s="2"/>
+      <c r="D46" s="2"/>
+      <c r="E46" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="F46" s="2"/>
+      <c r="G46" s="2"/>
+      <c r="H46" s="2"/>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A47" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="C47" s="2"/>
+      <c r="D47" s="2"/>
+      <c r="E47" s="2"/>
+      <c r="F47" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="G47" s="2"/>
+      <c r="H47" s="2" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A48" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="C48" s="2"/>
+      <c r="D48" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="E48" s="2"/>
+      <c r="F48" s="2"/>
+      <c r="G48" s="2"/>
+      <c r="H48" s="2" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A49" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C49" s="2"/>
+      <c r="D49" s="2"/>
+      <c r="E49" s="2"/>
+      <c r="F49" s="2"/>
+      <c r="G49" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="H49" s="2"/>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A50" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="C50" s="2"/>
+      <c r="D50" s="2"/>
+      <c r="E50" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="F50" s="2"/>
+      <c r="G50" s="2"/>
+      <c r="H50" s="2"/>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A51" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="B51" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="C51" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="D51" s="2"/>
+      <c r="E51" s="2"/>
+      <c r="F51" s="2"/>
+      <c r="G51" s="2"/>
+      <c r="H51" s="2"/>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A52" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="B52" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="C52" s="2"/>
+      <c r="D52" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="E52" s="2"/>
+      <c r="F52" s="2"/>
+      <c r="G52" s="2"/>
+      <c r="H52" s="2" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A54" s="2" t="s">
+        <v>163</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>